--- a/article_pricing.xlsx
+++ b/article_pricing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,7 +416,7 @@
         <v>0.3</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -436,7 +436,7 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -456,7 +456,7 @@
         <v>0.1</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -476,7 +476,7 @@
         <v>0.1</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
